--- a/SxE_res_quad_comp_formatted.xlsx
+++ b/SxE_res_quad_comp_formatted.xlsx
@@ -486,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -601,6 +601,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -646,10 +743,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -986,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,15 +1109,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
@@ -1013,6 +1126,7 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1136,7 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
@@ -1052,7 +1166,7 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -1064,7 +1178,7 @@
       <c r="D4">
         <v>52.893705288165897</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="12">
         <v>3.3891647699757297E-11</v>
       </c>
       <c r="F4">
@@ -1081,7 +1195,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -1093,7 +1207,7 @@
       <c r="D5">
         <v>3.1561137505188102</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>7.8075674531200706E-2</v>
       </c>
       <c r="F5">
@@ -1110,7 +1224,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6">
@@ -1122,7 +1236,7 @@
       <c r="D6">
         <v>0.97159659244626895</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>0.32618641426438799</v>
       </c>
       <c r="F6">
@@ -1138,8 +1252,8 @@
         <v>0.29908772943656298</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -1151,7 +1265,7 @@
       <c r="D7">
         <v>6.2503475436795597</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>1.2837434635712601E-4</v>
       </c>
       <c r="F7">
@@ -1168,65 +1282,65 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.31525948062214798</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>1.75420346841819</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="10">
         <v>0.14230684346382799</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0.317970808753331</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>1.64192456608964</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>0.16785533469837999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>0.32348464302568403</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>1.7999708736937201</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="11">
         <v>0.13297481571761</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>0.39175778639254699</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>2.0229427221849798</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <v>9.5204603083803296E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10">
@@ -1238,7 +1352,7 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10">
@@ -1268,7 +1382,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B12">
@@ -1280,7 +1394,7 @@
       <c r="D12">
         <v>4.22511628680209E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>0.83750517156271798</v>
       </c>
       <c r="F12">
@@ -1297,7 +1411,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -1309,7 +1423,7 @@
       <c r="D13">
         <v>4.3667339265794802E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>0.83484345195892196</v>
       </c>
       <c r="F13">
@@ -1326,7 +1440,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B14">
@@ -1338,7 +1452,7 @@
       <c r="D14">
         <v>2.6252644987007599E-4</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>0.98710078383889499</v>
       </c>
       <c r="F14">
@@ -1354,8 +1468,8 @@
         <v>0.94222916954368496</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B15">
@@ -1367,7 +1481,7 @@
       <c r="D15">
         <v>7.08352333941132</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="12">
         <v>3.9109025230838097E-5</v>
       </c>
       <c r="F15">
@@ -1384,65 +1498,65 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>8.4368536798705698</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>3.6367785912919</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="10">
         <v>7.9082925836339892E-3</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>3.40879267251101</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>4</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>1.5972145433195799</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>0.179783427097047</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>8.8433862975062603</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>3.8120179846224702</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="11">
         <v>6.0122817041417601E-3</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>2.4429211173896199</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>4</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>1.14464841711919</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
         <v>0.33917635516035699</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -1454,7 +1568,7 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F18">
@@ -1484,7 +1598,7 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1496,7 +1610,7 @@
       <c r="D20">
         <v>0.33009090623769599</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>0.566638108594545</v>
       </c>
       <c r="F20">
@@ -1513,7 +1627,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1525,7 +1639,7 @@
       <c r="D21">
         <v>2.7629472832895401E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>0.86825147351194498</v>
       </c>
       <c r="F21">
@@ -1542,7 +1656,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1554,7 +1668,7 @@
       <c r="D22">
         <v>1.98592058856519E-3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>0.96452621371421698</v>
       </c>
       <c r="F22">
@@ -1570,8 +1684,8 @@
         <v>0.85493905223467703</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1583,7 +1697,7 @@
       <c r="D23">
         <v>14.348104960137199</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="12">
         <v>1.1460915894362001E-9</v>
       </c>
       <c r="F23">
@@ -1600,65 +1714,65 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>2.1459708213960198</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>4</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>1.6952230291336201</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="10">
         <v>0.15523779558261</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>1.70089266738994</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>4</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>1.0944927294944899</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>0.36228536264580802</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>0.80368909284103296</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>4</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>0.63487920938334197</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="11">
         <v>0.63854677685109895</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <v>1.79951493840885</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="5">
         <v>4</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <v>1.1579543227307401</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6">
         <v>0.332680552916579</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1670,7 +1784,7 @@
       <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F26">
@@ -1700,7 +1814,7 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B28">
@@ -1712,7 +1826,7 @@
       <c r="D28">
         <v>4.9790661072211897</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="7">
         <v>2.8643671413987999E-2</v>
       </c>
       <c r="F28">
@@ -1729,7 +1843,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B29">
@@ -1741,7 +1855,7 @@
       <c r="D29">
         <v>1.50315913590189E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>0.902749108371936</v>
       </c>
       <c r="F29">
@@ -1758,7 +1872,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B30">
@@ -1770,7 +1884,7 @@
       <c r="D30">
         <v>0.27651534454444099</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="7">
         <v>0.60054576175759999</v>
       </c>
       <c r="F30">
@@ -1786,8 +1900,8 @@
         <v>0.54870638176018005</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B31">
@@ -1799,7 +1913,7 @@
       <c r="D31">
         <v>2.8751530243124002</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="7">
         <v>6.2645623976596898E-2</v>
       </c>
       <c r="F31">
@@ -1816,65 +1930,65 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>0.92528624449278096</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>2</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>0.207847482891759</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="10">
         <v>0.81279724247503204</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>3.1797806794085699</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>2</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>0.39392703830426301</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>0.67579036085341504</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>0.82847092447545401</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>2</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>0.18609981216745</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="11">
         <v>0.83057291351829499</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="5">
         <v>4.54983280428615</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="5">
         <v>2</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="5">
         <v>0.56365590651534803</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="6">
         <v>0.57151658538239203</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B34">
@@ -1886,7 +2000,7 @@
       <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F34">
@@ -1916,7 +2030,7 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B36">
@@ -1928,7 +2042,7 @@
       <c r="D36">
         <v>2.0029242745212299</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="7">
         <v>0.16113502457064299</v>
       </c>
       <c r="F36">
@@ -1945,7 +2059,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B37">
@@ -1957,7 +2071,7 @@
       <c r="D37">
         <v>0.215949072362876</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>0.64349029779807898</v>
       </c>
       <c r="F37">
@@ -1974,7 +2088,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B38">
@@ -1986,7 +2100,7 @@
       <c r="D38">
         <v>1.2702425473475099E-2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="7">
         <v>0.91056552973265803</v>
       </c>
       <c r="F38">
@@ -2002,8 +2116,8 @@
         <v>0.86154501851926002</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B39">
@@ -2015,7 +2129,7 @@
       <c r="D39">
         <v>0.77642860712079398</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <v>0.46370812040217602</v>
       </c>
       <c r="F39">
@@ -2032,65 +2146,65 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>0.58494249503604601</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>2</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>7.6349351082285299E-2</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="10">
         <v>0.92656439381993905</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>9.7419351712862898</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>2</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>1.03290411342092</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="4">
         <v>0.36097923782573299</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>2.0320945457883099</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>2</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>0.26523820926914898</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="11">
         <v>0.767739657004746</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="5">
         <v>11.205747833894</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="5">
         <v>2</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
         <v>1.1881071705036199</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="6">
         <v>0.31046808023928901</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B42">
@@ -2102,7 +2216,7 @@
       <c r="D42" t="s">
         <v>11</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F42">
